--- a/data/profiles/horses_t.xlsx
+++ b/data/profiles/horses_t.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -31,12 +31,12 @@
     <t>trainer</t>
   </si>
   <si>
-    <t>breeder</t>
-  </si>
-  <si>
     <t>earnings</t>
   </si>
   <si>
+    <t>speed_rating</t>
+  </si>
+  <si>
     <t>results</t>
   </si>
   <si>
@@ -46,15 +46,24 @@
     <t>workouts</t>
   </si>
   <si>
+    <t>lasik</t>
+  </si>
+  <si>
     <t>Test Horse</t>
   </si>
   <si>
+    <t>---</t>
+  </si>
+  <si>
     <t>Test Owner</t>
   </si>
   <si>
     <t>Test Trainer</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>date=20240222, track=BELM, jockey=Tim Palmer, place=3, distance=8.2, finish_time=00:02:05, avg_speed=3.1, form_note=good;date=20240222, track=SART, jockey=James Jones, place=2, distance=7.2, finish_time=00:02:05, avg_speed=7.1, form_note=good;date=20230829, track=BELM, jockey=Tim Palmer, place=1, distance=9.0, finish_time=00:01:05, avg_speed=2.1, form_note=bad;date=20230222, track=AQUE, jockey=Tim Palmer, place=2, distance=8.2, finish_time=00:02:05, avg_speed=7.3, form_note=very_bad;</t>
   </si>
   <si>
@@ -73,46 +82,122 @@
     <t>date=20240222, track=BELM, jockey=Tim Palmer, place=3, distance=8.2, finish_time=00:02:05, avg_speed=3.1, form_note=good;date=20240222, track=SART, jockey=James Jones, place=2, distance=7.2, finish_time=00:02:05, avg_speed=7.1, form_note=good;</t>
   </si>
   <si>
+    <t>Jamie's Joy</t>
+  </si>
+  <si>
+    <t>0-0-0-0</t>
+  </si>
+  <si>
     <t>Stonehedge LLC (Marilyn Campbell)</t>
   </si>
   <si>
     <t>Michael Yates</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Bigbouquetofroses</t>
+  </si>
+  <si>
+    <t>3-0-1-0</t>
+  </si>
+  <si>
     <t>Alex and JoAnn Lieblong</t>
   </si>
   <si>
     <t>David Fawkes</t>
   </si>
   <si>
+    <t>11200</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Perseverate</t>
+  </si>
+  <si>
     <t>Bull and Bear Racing Stable (Robert S. Bates)</t>
   </si>
   <si>
     <t>William Tharrenos</t>
   </si>
   <si>
+    <t>Sarah's Dream</t>
+  </si>
+  <si>
+    <t>3-0-0-1</t>
+  </si>
+  <si>
     <t>GU Racing Stable, LLC (Hernan Gomez)</t>
   </si>
   <si>
     <t>Jose Francisco D'Angelo</t>
   </si>
   <si>
-    <t>Clear Stars Stable (Michael Sternklar), Mitre Box Stable (Bob Jacoff) and</t>
+    <t>6370</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Vindicate Cha Cha</t>
+  </si>
+  <si>
+    <t>2-0-0-1</t>
+  </si>
+  <si>
+    <t>Clear Stars Stable (Michael Sternklar), Mitre Box Stable (Bob Jacoff) and Big
+Toe Stables LLC (Mark Healey)</t>
   </si>
   <si>
     <t>Michael Lerman</t>
   </si>
   <si>
+    <t>6360</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Olivia's Sparkle</t>
+  </si>
+  <si>
+    <t>4-0-2-1</t>
+  </si>
+  <si>
     <t>KD Racing, Inc. (Kathryn Davey)</t>
   </si>
   <si>
     <t>Kathryn Davey</t>
   </si>
   <si>
+    <t>27580</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Church Girl</t>
+  </si>
+  <si>
+    <t>6-0-0-0</t>
+  </si>
+  <si>
     <t>Hacienda Real Racing LLC (Miriam Real)</t>
   </si>
   <si>
     <t>Bernardo Campos</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Money Magnettes</t>
   </si>
   <si>
     <t>Barry Berkelhammer and Nick of Time Stable (Teresa Pompay)</t>
@@ -450,13 +535,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,121 +572,262 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>9</v>
       </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="F2">
         <v>120000</v>
       </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>15800</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>15800</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>21</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
